--- a/Buyer hub/Inventory/Manual testcases/Inventory Final listing testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Inventory Final listing testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\Inventory\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A9F0A4-7EBE-40BB-8CAF-359FA7CDA007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48B8BBE-A12E-44CB-B306-7BAF785D98A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1061,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,7 +1103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="11" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="11" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="11" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>14</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>15</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>16</v>
       </c>
@@ -1471,6 +1471,7 @@
         <v>13</v>
       </c>
     </row>
+    <row r="18" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="19"/>
       <c r="C22" s="17"/>

--- a/Buyer hub/Inventory/Manual testcases/Inventory Final listing testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Inventory Final listing testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48B8BBE-A12E-44CB-B306-7BAF785D98A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DF7D90-B711-4650-ADD6-31D22A91D109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
   <si>
     <t>SL. No</t>
   </si>
@@ -138,45 +138,6 @@
   </si>
   <si>
     <t>View Inventory menu page</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Settings "</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">As per expected, When </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Settings"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is clicked, a modal appeared. User should tick the display custom SKU name instead of original name ,if they want to see the custom names rather than the original name</t>
-    </r>
   </si>
   <si>
     <r>
@@ -548,41 +509,6 @@
   </si>
   <si>
     <t>it displayed the particular outlet details</t>
-  </si>
-  <si>
-    <r>
-      <t>1.When</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> "Settings"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is clicked, a modal appears. User should tick the display custom SKU name instead of original name ,if they want to see the custom names rather than the original name 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. Click Save button it gets saved</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -713,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -738,16 +664,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1061,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,58 +1104,58 @@
         <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="11" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="11" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="21" t="s">
+      <c r="F7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1252,13 +1170,13 @@
         <v>23</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
@@ -1268,20 +1186,20 @@
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>13</v>
@@ -1291,20 +1209,20 @@
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -1314,20 +1232,20 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>13</v>
@@ -1337,20 +1255,20 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
@@ -1360,125 +1278,103 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="G13" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="E14" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>13</v>
-      </c>
-      <c r="B14" s="19" t="s">
+      <c r="F14" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
-        <v>14</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="D15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
-        <v>15</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
-        <v>16</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
+      <c r="G16" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Buyer hub/Inventory/Manual testcases/Inventory Final listing testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Inventory Final listing testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DF7D90-B711-4650-ADD6-31D22A91D109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7974C94-7E01-4989-BC80-B82F10B4BDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>SL. No</t>
   </si>
@@ -509,6 +509,25 @@
   </si>
   <si>
     <t>it displayed the particular outlet details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the Checkbox </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the Checkbox , a button will appear at the top to allow users to  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Clear and Download inventory report"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -977,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:G17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,7 +1247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1238,20 +1257,16 @@
       <c r="C11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>47</v>
+      <c r="D11" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1265,16 +1280,16 @@
         <v>47</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1285,20 +1300,20 @@
         <v>25</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+        <v>47</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -1308,20 +1323,20 @@
         <v>25</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+    <row r="15" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -1330,20 +1345,20 @@
       <c r="C15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>33</v>
+      <c r="D15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>15</v>
       </c>
@@ -1353,11 +1368,11 @@
       <c r="C16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>35</v>
+      <c r="D16" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>34</v>
@@ -1366,15 +1381,38 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
+    <row r="17" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Buyer hub/Inventory/Manual testcases/Inventory Final listing testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Inventory Final listing testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7974C94-7E01-4989-BC80-B82F10B4BDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0047FF1A-7EE2-4FE3-9FF9-9487788189A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>SL. No</t>
   </si>
@@ -511,9 +511,6 @@
     <t>it displayed the particular outlet details</t>
   </si>
   <si>
-    <t xml:space="preserve">Click the Checkbox </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Once click the Checkbox , a button will appear at the top to allow users to  </t>
     </r>
@@ -528,6 +525,12 @@
       </rPr>
       <t>"Clear and Download inventory report"</t>
     </r>
+  </si>
+  <si>
+    <t>Click the Checkbox &gt; Next to outlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It displayed as we expected </t>
   </si>
 </sst>
 </file>
@@ -998,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,13 +1261,17 @@
         <v>25</v>
       </c>
       <c r="D11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:8" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">

--- a/Buyer hub/Inventory/Manual testcases/Inventory Final listing testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Inventory Final listing testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0047FF1A-7EE2-4FE3-9FF9-9487788189A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ACF1F9-2FF2-4C2E-A858-EF68063AD996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
   <si>
     <t>SL. No</t>
   </si>
@@ -531,6 +531,193 @@
   </si>
   <si>
     <t xml:space="preserve">It displayed as we expected </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Upon clicking the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Copy from"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.., Pop up shows Copy from existing inventory.                                                                                        1.After clicking </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : If all items can be copied over, the user will see a confirmation screen and Done button                              2.If there are some items that cannot be copied over, we will show a warning message, and a link to view a list of those items in a separate modal.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Upon clicking </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Done"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, show a toast message like Inventory was succesfully duplicated</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Outlet-&gt; Copy from…(Single inventory)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Outlet-&gt; Copy from…(Multiple inventory)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User can select one or more outlets checkbox with no inventory and click the option called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Copy from…"                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.Upon clicking </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Copy from…, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">a modal appears asking user to select an existing inventory to copy to the selected outlets.  2.After clicking </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Next"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : will see confirmation screen and Done button                                                                                                     3. If there are some items that cannot be copied over, we will show a warning message and how many items per outlet cannot be copied, and a link to view a list of those items in a separate modal.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -661,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -685,38 +872,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1001,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,49 +1312,49 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+    <row r="6" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+    <row r="7" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1204,20 +1381,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="10" t="s">
@@ -1227,20 +1404,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="10" t="s">
@@ -1250,20 +1427,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="10" t="s">
@@ -1273,20 +1450,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="16" t="s">
         <v>48</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -1296,20 +1473,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="10" t="s">
@@ -1323,103 +1500,141 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Buyer hub/Inventory/Manual testcases/Inventory Final listing testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Inventory Final listing testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ACF1F9-2FF2-4C2E-A858-EF68063AD996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B296650-822B-462F-B0BA-495776E2AD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
   <si>
     <t>SL. No</t>
   </si>
@@ -534,6 +534,78 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Upon clicking </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Done"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, show a toast message like Inventory was succesfully duplicated</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Outlet-&gt; Copy from…(Single inventory)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Outlet-&gt; Copy from…(Multiple inventory)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Upon clicking the </t>
     </r>
     <r>
@@ -555,100 +627,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">.., Pop up shows Copy from existing inventory.                                                                                        1.After clicking </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Next</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : If all items can be copied over, the user will see a confirmation screen and Done button                              2.If there are some items that cannot be copied over, we will show a warning message, and a link to view a list of those items in a separate modal.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Upon clicking </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Done"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, show a toast message like Inventory was succesfully duplicated</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Click the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Outlet-&gt; Copy from…(Single inventory)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Click the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Outlet-&gt; Copy from…(Multiple inventory)</t>
+      <t xml:space="preserve">.., Pop up shows Copy from existing inventory.                                                                                        1.After clicking Outlet dropdown and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Copy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : If all items can be copied over, the user will see a confirmation screen and Done button                                                                                                             2.Copy from existing inventory : we've duplicated the inventory of outlet name ,If there are some items that cannot be copied over, we will show a warning message, and a link to view a list of those items in a separate modal.</t>
     </r>
   </si>
   <si>
@@ -674,7 +674,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">1.Upon clicking </t>
+      <t xml:space="preserve">1.Upon clicking  </t>
     </r>
     <r>
       <rPr>
@@ -695,28 +695,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">a modal appears asking user to select an existing inventory to copy to the selected outlets.  2.After clicking </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Next"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : will see confirmation screen and Done button                                                                                                     3. If there are some items that cannot be copied over, we will show a warning message and how many items per outlet cannot be copied, and a link to view a list of those items in a separate modal.</t>
+      <t xml:space="preserve">a modal appears asking user to select an existing inventory to copy to the selected outlets.  2.After clicking Outlet dropdown and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Copy"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : will see confirmation screen and Done button                                                                                                     3. we've duplicated the inventory of outlet name, If there are some items that cannot be copied over, we will show a warning message and how many items per outlet cannot be copied, and a link to view a list of those items in a separate modal.</t>
     </r>
   </si>
 </sst>
@@ -848,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -890,12 +890,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,8 +1583,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+    <row r="18" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1599,17 +1594,20 @@
         <v>25</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>62</v>
+      <c r="G18" s="17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="15">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1619,13 +1617,16 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>62</v>
+      <c r="F19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">

--- a/Buyer hub/Inventory/Manual testcases/Inventory Final listing testcases.xlsx
+++ b/Buyer hub/Inventory/Manual testcases/Inventory Final listing testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Inventory\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B296650-822B-462F-B0BA-495776E2AD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA6448E-C84A-4075-AB1D-BBFFE5C954C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,6 +347,355 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">When adding an SKU to an outlets inventory the SKU needs to be added  to an inventory list                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It displayed the Outlets </t>
+  </si>
+  <si>
+    <t>Outlets -&gt; SKU</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Outlet</t>
+    </r>
+  </si>
+  <si>
+    <t>Once click on the Unavailable to outlets on starter plan -Learn more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It displayed the Pop up page like Upgrade to use this feature screen and View subscription plans </t>
+  </si>
+  <si>
+    <t>It displayed the F&amp;B home page and details,also you can ask help with Zeemart chat</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.If we click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View subscription plans,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>it shows main page of this plan                                                                                                    2.And click 'X' then it return back to outlets page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Outlet-&gt; Create new list</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the Create new list ,it shows pop up page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It gets displayed List name  and Next button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create List name and click Next ,it will go to Add to list pop up page </t>
+  </si>
+  <si>
+    <t>It displayed the Add to list pop up page</t>
+  </si>
+  <si>
+    <t>Create new list -&gt; Add to list</t>
+  </si>
+  <si>
+    <t>1.In the Add to list page shows SKU name, All suppliers dropdown, SKU, Inventory UOM, Conversion rate to order UOM and Done                                                                                             2.And click 'X' then it return back to outlets page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It gets displayed SKU name, All suppliers dropdown, SKU, Inventory UOM, Conversion rate to order UOM and Done                                  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Outlet -&gt; Search outlets</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Once click Search outlets and type particular outlet name </t>
+  </si>
+  <si>
+    <t>it displayed the particular outlet details</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the Checkbox , a button will appear at the top to allow users to  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Clear and Download inventory report"</t>
+    </r>
+  </si>
+  <si>
+    <t>Click the Checkbox &gt; Next to outlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It displayed as we expected </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Upon clicking </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Done"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, show a toast message like Inventory was succesfully duplicated</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Outlet-&gt; Copy from…(Single inventory)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Outlet-&gt; Copy from…(Multiple inventory)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Upon clicking the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Copy from"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.., Pop up shows Copy from existing inventory.                                                                                        1.After clicking Outlet dropdown and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Copy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : If all items can be copied over, the user will see a confirmation screen and Done button                                                                                                             2.Copy from existing inventory : we've duplicated the inventory of outlet name ,If there are some items that cannot be copied over, we will show a warning message, and a link to view a list of those items in a separate modal.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User can select one or more outlets checkbox with no inventory and click the option called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Copy from…"                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.Upon clicking  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Copy from…, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">a modal appears asking user to select an existing inventory to copy to the selected outlets.  2.After clicking Outlet dropdown and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Copy"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : will see confirmation screen and Done button                                                                                                     3. we've duplicated the inventory of outlet name, If there are some items that cannot be copied over, we will show a warning message and how many items per outlet cannot be copied, and a link to view a list of those items in a separate modal.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Once click on the </t>
     </r>
@@ -367,356 +716,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>It should display the Outlet, Est.value, Items, Below par and Last counted                                 1.On top Est.value at count, List counted &gt; 31days ago, Outlets with items below par</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">When adding an SKU to an outlets inventory the SKU needs to be added  to an inventory list                                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It displayed the Outlets </t>
-  </si>
-  <si>
-    <t>Outlets -&gt; SKU</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Click the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Outlet</t>
-    </r>
-  </si>
-  <si>
-    <t>Once click on the Unavailable to outlets on starter plan -Learn more</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It displayed the Pop up page like Upgrade to use this feature screen and View subscription plans </t>
-  </si>
-  <si>
-    <t>It displayed the F&amp;B home page and details,also you can ask help with Zeemart chat</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.If we click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>View subscription plans,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>it shows main page of this plan                                                                                                    2.And click 'X' then it return back to outlets page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Click the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Outlet-&gt; Create new list</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Click the Create new list ,it shows pop up page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It gets displayed List name  and Next button </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create List name and click Next ,it will go to Add to list pop up page </t>
-  </si>
-  <si>
-    <t>It displayed the Add to list pop up page</t>
-  </si>
-  <si>
-    <t>Create new list -&gt; Add to list</t>
-  </si>
-  <si>
-    <t>1.In the Add to list page shows SKU name, All suppliers dropdown, SKU, Inventory UOM, Conversion rate to order UOM and Done                                                                                             2.And click 'X' then it return back to outlets page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It gets displayed SKU name, All suppliers dropdown, SKU, Inventory UOM, Conversion rate to order UOM and Done                                  </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Click the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Outlet -&gt; Search outlets</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Once click Search outlets and type particular outlet name </t>
-  </si>
-  <si>
-    <t>it displayed the particular outlet details</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click the Checkbox , a button will appear at the top to allow users to  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Clear and Download inventory report"</t>
-    </r>
-  </si>
-  <si>
-    <t>Click the Checkbox &gt; Next to outlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It displayed as we expected </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Upon clicking </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Done"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, show a toast message like Inventory was succesfully duplicated</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Click the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Outlet-&gt; Copy from…(Single inventory)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Click the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Outlet-&gt; Copy from…(Multiple inventory)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Upon clicking the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Copy from"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.., Pop up shows Copy from existing inventory.                                                                                        1.After clicking Outlet dropdown and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Copy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : If all items can be copied over, the user will see a confirmation screen and Done button                                                                                                             2.Copy from existing inventory : we've duplicated the inventory of outlet name ,If there are some items that cannot be copied over, we will show a warning message, and a link to view a list of those items in a separate modal.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">User can select one or more outlets checkbox with no inventory and click the option called </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Copy from…"                      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1.Upon clicking  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Copy from…, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">a modal appears asking user to select an existing inventory to copy to the selected outlets.  2.After clicking Outlet dropdown and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Copy"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : will see confirmation screen and Done button                                                                                                     3. we've duplicated the inventory of outlet name, If there are some items that cannot be copied over, we will show a warning message and how many items per outlet cannot be copied, and a link to view a list of those items in a separate modal.</t>
+      <t>It should display the Outlet, Est.value, Items, Below par and Last counted                                 1.On top Est.value, Lists counted &gt; 31days ago, Outlets with items below par</t>
     </r>
   </si>
 </sst>
@@ -848,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -890,7 +890,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1173,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1320,7 @@
         <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>31</v>
@@ -1364,13 +1363,13 @@
         <v>23</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
@@ -1387,13 +1386,13 @@
         <v>25</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>13</v>
@@ -1410,13 +1409,13 @@
         <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -1433,13 +1432,13 @@
         <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>13</v>
@@ -1456,13 +1455,13 @@
         <v>25</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="F12" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
@@ -1479,13 +1478,13 @@
         <v>25</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -1502,13 +1501,13 @@
         <v>25</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="F14" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>13</v>
@@ -1525,13 +1524,13 @@
         <v>25</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="F15" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>13</v>
@@ -1594,15 +1593,15 @@
         <v>25</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1617,15 +1616,15 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>13</v>
       </c>
     </row>
